--- a/resources/search-results/4-qq-assesments/2022-An improved supervised term weighting scheme for text representation and classification.xlsx
+++ b/resources/search-results/4-qq-assesments/2022-An improved supervised term weighting scheme for text representation and classification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D56C8-4C61-4DAE-898C-2A2F12020D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51EBB29-6868-4D2D-BBB5-C9260667764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="4860" windowWidth="22545" windowHeight="10275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality-1" sheetId="1" r:id="rId1"/>
@@ -83,22 +83,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>- The authors in the future want to conduct comparative studies on the IGM model as a new measure of sample distribution non-uniformity and the traditional statistical models such as variance and entropy. 
-- The authors want to expand the scope of experiments for text classification. 
-- The authors highlight the possibility of applying the IGM model to feature dimension reduction and sentiment analysis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- In work, the authors show that TF-IGM outperforms the famous TF-IDF and the state-of-the-art supervised term weighting schemes. Besides, some new findings different from previous studies are obtained and analyzed in-depth in the paper.
-- See more in Subsection 4.6 and Section 5.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - The goal of the work is to show that a new term weighting scheme called Term frequency &amp; Inverse gravity moment (TF-IGM), as well as its variants, can be used successfully as new weighted text representation schema alongside other standard weighting schemas in document classification task.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Text representation, Feature learning/Representation learning, Feature weighting schema, Term frequency &amp; Inverse gravity moment
- - In this paper, the authors describe a new term weighting schemat called Term frequency &amp; Inverse gravity moment (TF-IGM). The proposed method is a type of Supervised Term Weighting (STW) approach where during term weighting is incorporate information about the class, i.e. we weighting terms by exploiting the known categorical information in a training corpus.  The proposed method incorporates a new statistical model to precisely measure the class distinguishing power of a term. Particularly, it makes full use of the fine-grained term distribution across different classes of text. </t>
-  </si>
-  <si>
     <t>Q1 Does the article present a clear statement of the aim of the research? If yes, what is it?</t>
   </si>
   <si>
@@ -217,6 +201,21 @@
   </si>
   <si>
     <t>Support Vector Machine + RTF-IDF-DCRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The goal of the work is to show that a new term weighting scheme called RTF-IDF-DCRE, as well as its variants, can be used successfully as new weighted text representation schema alongside other standard weighting schemas in document classification task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- In work, the authors show that RTF-IDF-DCRE outperforms the famous TF-IDF and the state-of-the-art supervised term weighting schemes. Besides, some new findings different from previous studies are obtained and analyzed in-depth in the paper.
+- See more in Subsection 4.6 and Section 5.  </t>
+  </si>
+  <si>
+    <t>- Text representation, Feature learning/Representation learning, Feature weighting schema, Term frequency &amp; Inverse gravity moment
+ - The paper does describe a new term weighting scheme that combines the cumulative residual entropy (CRE) and the proportional distortion function (PDF). The CRE is presented as a new measure of information that overcomes the shortcomings of Shannon entropy. The proposed method, RTF-IDF-DCRE, is a type of Supervised Term Weighting (STW) approach that incorporates information about the class by exploiting the known categorical information in a training corpus. The method aims to measure the class distinguishing power of a term by utilizing the fine-grained term distribution across different classes.</t>
+  </si>
+  <si>
+    <t>- The study recommends consider semantic relationships between terms
+- The study recommends represent texts directly in latent numerical feature spaces.</t>
   </si>
 </sst>
 </file>
@@ -319,6 +318,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -327,15 +335,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -644,62 +643,62 @@
     </row>
     <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -710,7 +709,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -719,7 +718,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -728,7 +727,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -737,7 +736,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
@@ -746,7 +745,7 @@
     </row>
     <row r="12" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
@@ -758,7 +757,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -767,7 +766,7 @@
     </row>
     <row r="14" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
@@ -776,7 +775,7 @@
     </row>
     <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -787,7 +786,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
@@ -798,18 +797,18 @@
     </row>
     <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>15</v>
@@ -818,7 +817,7 @@
     </row>
     <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
@@ -827,7 +826,7 @@
     </row>
     <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>17</v>
@@ -836,7 +835,7 @@
     </row>
     <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -845,7 +844,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
@@ -854,7 +853,7 @@
     </row>
     <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
@@ -863,18 +862,18 @@
     </row>
     <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -883,18 +882,18 @@
     </row>
     <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>16</v>
@@ -905,7 +904,7 @@
     </row>
     <row r="28" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>15</v>
@@ -917,7 +916,7 @@
     </row>
     <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>15</v>
@@ -926,7 +925,7 @@
     </row>
     <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -935,7 +934,7 @@
     </row>
     <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>16</v>
@@ -944,13 +943,13 @@
     </row>
     <row r="32" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -966,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -991,27 +990,27 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>60</v>
+      <c r="B2" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="14"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
@@ -1020,7 +1019,7 @@
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="14"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -1029,7 +1028,7 @@
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1042,7 +1041,7 @@
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1055,7 +1054,7 @@
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1068,7 +1067,7 @@
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>83.3</v>
       </c>
       <c r="C8" s="5"/>
@@ -1107,64 +1106,64 @@
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
